--- a/utils/service-test-suite/src/test/resources/basicauth-data.xlsx
+++ b/utils/service-test-suite/src/test/resources/basicauth-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\somnath\temp\utilities\service-test-suite\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somnath\Documents\git-ws\mywork\utils\service-test-suite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2D01FE-9EB2-4F68-AF58-2A882AF7FFF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="27800" windowHeight="14630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -41,12 +42,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>https://ssgosgdev.isus.emc.com/dev/cpeldap/api/persons?ntid=upadhs5</t>
-  </si>
-  <si>
-    <t>https://ssgosgdev.isus.emc.com/dev/cpeldap/api/persons?ntid=rudram1</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -59,66 +54,19 @@
     <t>BASIC001</t>
   </si>
   <si>
-    <t>BASIC002</t>
-  </si>
-  <si>
     <t>cpe_l7apiuser</t>
   </si>
   <si>
     <t>jsonHeader</t>
   </si>
   <si>
-    <t>aic_user</t>
-  </si>
-  <si>
-    <t>@1cnu5eR</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>PegaAgentAssignment</t>
-  </si>
-  <si>
-    <t>PegaQueueAssignment</t>
-  </si>
-  <si>
-    <t>PegaCreateOrUpdateFR</t>
-  </si>
-  <si>
-    <t>PegaSwarmAssignmentParse </t>
-  </si>
-  <si>
-    <t>PegaAssignWorkEngineerAvailability</t>
-  </si>
-  <si>
-    <t>PegaUserProfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ssgosgdur.isus.emc.com/pcf/agentassignment-webservice-servicesfdc/pegasfdc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ssgosgdur.isus.emc.com/pcfprd/queueassignment-webservice-servicesfdc/queueAssignment
-</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com/prd/IMS/CreateUpdatePBR</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com/prd/IMS/SWARMRequestPBR</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com//prd/IMS/AssignWork</t>
-  </si>
-  <si>
-    <t>https://ssgosgdur.isus.emc.com//prd/IMS/UserProfileService</t>
+    <t>https://myorgdev.domain.com/dev/cpeldap/api/persons?ntid=somnath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -162,6 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +140,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -283,6 +232,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -318,6 +284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,24 +476,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.140625" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.1796875" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -530,24 +513,24 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -562,217 +545,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://ssgosghop.isus.emc.com/pcf/agentassignment-webservice-servicesfdc/pegasfdc_x000a_"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://ssgosghop.isus.emc.com/pcfprd/queueassignment-webservice-servicesfdc/queueAssignment_x000a_"/>
-    <hyperlink ref="B7" r:id="rId3" display="https://ssgosghop.isus.emc.com/prd/IMS/SWARMRequestPBR"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
